--- a/6/2/2/Spot posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
+++ b/6/2/2/Spot posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>Serie</t>
   </si>
@@ -839,6 +839,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E271"/>
+  <dimension ref="A1:E272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5521,6 +5524,23 @@
         <v>1688</v>
       </c>
     </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>275</v>
+      </c>
+      <c r="B272">
+        <v>-9905</v>
+      </c>
+      <c r="C272">
+        <v>3463</v>
+      </c>
+      <c r="D272">
+        <v>2042</v>
+      </c>
+      <c r="E272">
+        <v>1421</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/2/Spot posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
+++ b/6/2/2/Spot posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t>Serie</t>
   </si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E272"/>
+  <dimension ref="A1:E273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5541,6 +5544,14 @@
         <v>1421</v>
       </c>
     </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273">
+        <v>-10230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/2/Spot posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
+++ b/6/2/2/Spot posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
@@ -5535,21 +5535,30 @@
         <v>-9905</v>
       </c>
       <c r="C272">
-        <v>3463</v>
+        <v>3455</v>
       </c>
       <c r="D272">
-        <v>2042</v>
+        <v>2034</v>
       </c>
       <c r="E272">
         <v>1421</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:5">
       <c r="A273" t="s">
         <v>276</v>
       </c>
       <c r="B273">
         <v>-10230</v>
+      </c>
+      <c r="C273">
+        <v>3152</v>
+      </c>
+      <c r="D273">
+        <v>1797</v>
+      </c>
+      <c r="E273">
+        <v>1355</v>
       </c>
     </row>
   </sheetData>

--- a/6/2/2/Spot posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
+++ b/6/2/2/Spot posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>Serie</t>
   </si>
@@ -845,6 +845,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5561,6 +5564,14 @@
         <v>1355</v>
       </c>
     </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274">
+        <v>-10187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/2/Spot posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
+++ b/6/2/2/Spot posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
@@ -5571,6 +5571,15 @@
       <c r="B274">
         <v>-10187</v>
       </c>
+      <c r="C274">
+        <v>3113</v>
+      </c>
+      <c r="D274">
+        <v>1758</v>
+      </c>
+      <c r="E274">
+        <v>1355</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/6/2/2/Spot posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
+++ b/6/2/2/Spot posiciones netas y suscripciones promedio 1999 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t>Serie</t>
   </si>
@@ -848,6 +848,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5581,6 +5584,14 @@
         <v>1355</v>
       </c>
     </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>278</v>
+      </c>
+      <c r="B275">
+        <v>-10483</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
